--- a/1- Trancar Conta Caixa.xlsx
+++ b/1- Trancar Conta Caixa.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isvbl\OneDrive\Área de Trabalho\1- Trancar Conta Caixa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b02e97e1f944f31/Área de Trabalho/GitHub/1-Automacao_Trancar_Conta_Caixa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F5AFE4-3CE6-4EE8-834F-D1DC63A66703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D2F5AFE4-3CE6-4EE8-834F-D1DC63A66703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDAAAEF5-1B1E-414C-849C-139C84B0167D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F18DBFD7-8338-43C6-9A0E-E2053349CECE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F18DBFD7-8338-43C6-9A0E-E2053349CECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Coligada</t>
   </si>
@@ -45,104 +45,170 @@
     <t>Aplicação</t>
   </si>
   <si>
-    <t>341.002</t>
-  </si>
-  <si>
-    <t>341.006</t>
-  </si>
-  <si>
-    <t>341.035</t>
-  </si>
-  <si>
-    <t>341.009</t>
-  </si>
-  <si>
-    <t>341.013</t>
-  </si>
-  <si>
-    <t>341.005</t>
-  </si>
-  <si>
-    <t>341.007</t>
-  </si>
-  <si>
-    <t>341.015</t>
-  </si>
-  <si>
-    <t>341.016</t>
-  </si>
-  <si>
-    <t>341.021</t>
-  </si>
-  <si>
-    <t>341.022</t>
-  </si>
-  <si>
-    <t>341.024</t>
-  </si>
-  <si>
-    <t>341.047</t>
-  </si>
-  <si>
-    <t>341.053</t>
-  </si>
-  <si>
-    <t>341.054</t>
-  </si>
-  <si>
-    <t>341.107</t>
-  </si>
-  <si>
-    <t>341.004</t>
-  </si>
-  <si>
-    <t>341.001</t>
-  </si>
-  <si>
-    <t>341.003</t>
-  </si>
-  <si>
-    <t>341.012</t>
-  </si>
-  <si>
-    <t>341.048</t>
-  </si>
-  <si>
-    <t>341.014</t>
-  </si>
-  <si>
-    <t>341.023</t>
-  </si>
-  <si>
-    <t>341.018</t>
-  </si>
-  <si>
-    <t>341.025</t>
-  </si>
-  <si>
-    <t>341.049</t>
-  </si>
-  <si>
-    <t>341.085</t>
-  </si>
-  <si>
-    <t>341.026</t>
-  </si>
-  <si>
-    <t>341.086</t>
-  </si>
-  <si>
-    <t>341.017</t>
+    <t>000.001</t>
+  </si>
+  <si>
+    <t>000.002</t>
+  </si>
+  <si>
+    <t>000.003</t>
+  </si>
+  <si>
+    <t>000.004</t>
+  </si>
+  <si>
+    <t>000.005</t>
+  </si>
+  <si>
+    <t>000.006</t>
+  </si>
+  <si>
+    <t>000.007</t>
+  </si>
+  <si>
+    <t>000.008</t>
+  </si>
+  <si>
+    <t>000.009</t>
+  </si>
+  <si>
+    <t>000.010</t>
+  </si>
+  <si>
+    <t>000.011</t>
+  </si>
+  <si>
+    <t>000.012</t>
+  </si>
+  <si>
+    <t>000.013</t>
+  </si>
+  <si>
+    <t>000.014</t>
+  </si>
+  <si>
+    <t>000.015</t>
+  </si>
+  <si>
+    <t>000.016</t>
+  </si>
+  <si>
+    <t>000.017</t>
+  </si>
+  <si>
+    <t>000.018</t>
+  </si>
+  <si>
+    <t>000.019</t>
+  </si>
+  <si>
+    <t>000.020</t>
+  </si>
+  <si>
+    <t>000.021</t>
+  </si>
+  <si>
+    <t>000.022</t>
+  </si>
+  <si>
+    <t>000.023</t>
+  </si>
+  <si>
+    <t>000.024</t>
+  </si>
+  <si>
+    <t>000.025</t>
+  </si>
+  <si>
+    <t>000.026</t>
+  </si>
+  <si>
+    <t>000.027</t>
+  </si>
+  <si>
+    <t>000.028</t>
+  </si>
+  <si>
+    <t>000.029</t>
+  </si>
+  <si>
+    <t>000.030</t>
+  </si>
+  <si>
+    <t>000.031</t>
+  </si>
+  <si>
+    <t>000.032</t>
+  </si>
+  <si>
+    <t>000.033</t>
+  </si>
+  <si>
+    <t>000.034</t>
+  </si>
+  <si>
+    <t>000.035</t>
+  </si>
+  <si>
+    <t>000.036</t>
+  </si>
+  <si>
+    <t>000.037</t>
+  </si>
+  <si>
+    <t>000.038</t>
+  </si>
+  <si>
+    <t>000.039</t>
+  </si>
+  <si>
+    <t>000.040</t>
+  </si>
+  <si>
+    <t>000.041</t>
+  </si>
+  <si>
+    <t>000.042</t>
+  </si>
+  <si>
+    <t>000.043</t>
+  </si>
+  <si>
+    <t>000.044</t>
+  </si>
+  <si>
+    <t>000.045</t>
+  </si>
+  <si>
+    <t>000.046</t>
+  </si>
+  <si>
+    <t>000.047</t>
+  </si>
+  <si>
+    <t>000.048</t>
+  </si>
+  <si>
+    <t>000.049</t>
+  </si>
+  <si>
+    <t>000.050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,12 +554,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -523,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -537,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -545,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -556,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -567,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -578,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -592,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -603,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -611,10 +677,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -622,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -633,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -644,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -655,10 +721,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -666,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -677,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -688,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -699,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -710,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -721,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32</v>
       </c>
@@ -732,10 +798,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>32</v>
       </c>
@@ -743,10 +809,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -754,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>46</v>
       </c>
@@ -765,10 +831,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>46</v>
       </c>
@@ -776,10 +842,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>60</v>
       </c>
@@ -787,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>61</v>
       </c>
@@ -798,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>62</v>
       </c>
@@ -809,10 +875,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>70</v>
       </c>
@@ -820,10 +886,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>77</v>
       </c>
@@ -831,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>78</v>
       </c>
@@ -842,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>79</v>
       </c>
@@ -853,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>80</v>
       </c>
@@ -864,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>80</v>
       </c>
@@ -875,10 +941,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>86</v>
       </c>
@@ -886,10 +952,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>86</v>
       </c>
@@ -897,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>86</v>
       </c>
@@ -908,10 +974,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>90</v>
       </c>
@@ -919,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>90</v>
       </c>
@@ -930,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>90</v>
       </c>
@@ -941,10 +1007,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>90</v>
       </c>
@@ -952,10 +1018,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>95</v>
       </c>
@@ -963,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>95</v>
       </c>
@@ -974,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>95</v>
       </c>
@@ -985,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>95</v>
       </c>
@@ -996,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>96</v>
       </c>
@@ -1007,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>97</v>
       </c>
@@ -1018,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>99</v>
       </c>
@@ -1029,10 +1095,10 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>100</v>
       </c>
@@ -1040,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>100</v>
       </c>
@@ -1051,10 +1117,11 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>